--- a/Bex Variables.xlsx
+++ b/Bex Variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maki/Desktop/Master Thesis/BEX 2223 Master Thesis Maung Kyaw/IVPToleranceBex2223/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8EE55D-443B-5544-853B-847F0053ECF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0BFC64-F097-BE48-AECE-04FBECAE0F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{9E0CA693-76F6-B643-993E-D0B145AB4D7E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
   <si>
     <t>Predictors</t>
   </si>
@@ -130,18 +130,12 @@
     <t>Ordinal</t>
   </si>
   <si>
-    <t>Standardized Dyadic Social Index based on affiliative interactions (z-scores)</t>
-  </si>
-  <si>
     <t>Directional Age Difference</t>
   </si>
   <si>
     <t>Identifies whether the older dyad member is male or female</t>
   </si>
   <si>
-    <t>Main dependent variable. Defined as a dyad approaching their boxes without aggression.</t>
-  </si>
-  <si>
     <t>Derived from life history data. Range estimated using adjusted dates for natal dispersal.</t>
   </si>
   <si>
@@ -181,73 +175,59 @@
     <t>Absolute age difference in years between dyad members (e.g., Sey and  Sirk have 3.8 years of difference)</t>
   </si>
   <si>
-    <t>Calculated from Date of Birth for females and males if available. If not estimated from date of arrival in group</t>
-  </si>
-  <si>
     <t>Quantifies difference of rank using the quartile in which males and females are respectively to their sex and group</t>
   </si>
   <si>
-    <t>If a female is in 1st quartile and male in 2nd, output will be 1. If Male is in 4th, there will be 3 as an output.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Computed using affiliative behavior data and calculated for the first day of the experiment as their </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>initial</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> social bond</t>
-    </r>
-  </si>
-  <si>
     <t>Male Older, Female Older</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Define whcih individual might be higher ranking respectively to their sex in the dyad</t>
-  </si>
-  <si>
-    <t>Is estimated from the quartiles. Such a method remains to be statistically tested and proven.</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.04 to 3.32 </t>
   </si>
   <si>
-    <t>Number of years males have been part of the group until the beggning of the experiment</t>
-  </si>
-  <si>
     <t>Based on birth and last-seen dates for offspring.If the female had a baby that died we coded no, again</t>
   </si>
   <si>
     <t>Included as they are activity and food availability varaitions</t>
   </si>
   <si>
-    <t>Included as group living for both female is impacted by these periods</t>
+    <t>Segments the year into biologically relevant periods based on vervet monkeys' ecological and reproductive cycles</t>
+  </si>
+  <si>
+    <t>Main dependent variable. Defined as a dyad approaching their boxes without aggression</t>
+  </si>
+  <si>
+    <t>Calculated from date of birth for females and males if available. If not estimated from date of arrival in group</t>
+  </si>
+  <si>
+    <t>Define which individual might be higher ranking respectively to their sex in the dyad</t>
+  </si>
+  <si>
+    <t>Number of years males have been part of the group until the begining of the experiment</t>
+  </si>
+  <si>
+    <t>Dyadic Social Index (DSI) quantifies the strength of social bonds between individuals within a dyad based on affiliative behaviors,and proximity, we calculated it at the date of the first trial per dyad</t>
+  </si>
+  <si>
+    <t>Summary: dependent and independent variables in the dyadic box experiment on tolerance in vervet monkey's</t>
+  </si>
+  <si>
+    <t>If a female is in 1st quartile and male in 2nd, output will be 1. If Male is in 4th, there will be 3 as an output. Elo metrics were based on Borgeaud et al., 2017</t>
+  </si>
+  <si>
+    <t>Is estimated from the quartiles. Such a method remains to be statistically tested and proven. Used for investigating sex-specific influences on dyadic tolerance</t>
+  </si>
+  <si>
+    <t>Standardized Dyadic Social Index based on affiliative interactions (z-scores). Methods from Neumann et al., 2016</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -276,8 +256,15 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
-      <sz val="12"/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -304,7 +291,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -390,6 +377,39 @@
     </border>
     <border>
       <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -398,50 +418,43 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -452,84 +465,100 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -845,300 +874,319 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C94809F4-6EC6-364C-BA2A-284153A15CD1}">
-  <dimension ref="A1:J23"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD13"/>
+      <selection activeCell="F14" sqref="A1:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="2" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="51.5" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="48.1640625" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="50.1640625" customWidth="1"/>
+    <col min="6" max="6" width="59.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19"/>
+      <c r="B1" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
+    </row>
+    <row r="2" spans="1:10" s="3" customFormat="1" ht="47" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="3" customFormat="1" ht="47" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" s="3" customFormat="1" ht="47" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="3" customFormat="1" ht="47" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:10" s="3" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="3" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="3" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="3" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="3" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="3" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="3" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="3" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
-    </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="19">
-        <v>1</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="3" customFormat="1" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="26"/>
-    </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="3" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="16" t="s">
+      <c r="F13" s="16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="3" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="6" t="s">
+    <row r="14" spans="1:10" s="3" customFormat="1" ht="47" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="D14" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="3" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="3" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="3" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="3" customFormat="1" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="4:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D23" s="5"/>
+    </row>
+    <row r="15" spans="1:10" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="36"/>
+    </row>
+    <row r="17" spans="4:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="4:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D18" s="4"/>
+      <c r="E18"/>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D24" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="71" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>